--- a/teaching/traditional_assets/database/data/egypt/egypt_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/egypt/egypt_banks_regional.xlsx
@@ -591,13 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.2955</v>
+        <v>0.2545</v>
       </c>
       <c r="E2">
-        <v>0.322</v>
-      </c>
-      <c r="F2">
-        <v>0.08500000000000001</v>
+        <v>0.2975</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -612,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>112.9</v>
+        <v>125.6</v>
       </c>
       <c r="L2">
-        <v>0.434899845916795</v>
+        <v>0.4135660190977939</v>
       </c>
       <c r="M2">
-        <v>21.64</v>
+        <v>24.81</v>
       </c>
       <c r="N2">
-        <v>0.06683137739345275</v>
+        <v>0.07139568345323742</v>
       </c>
       <c r="O2">
-        <v>0.191674047829938</v>
+        <v>0.197531847133758</v>
       </c>
       <c r="P2">
-        <v>21.64</v>
+        <v>24.81</v>
       </c>
       <c r="Q2">
-        <v>0.06683137739345275</v>
+        <v>0.07139568345323742</v>
       </c>
       <c r="R2">
-        <v>0.191674047829938</v>
+        <v>0.197531847133758</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1943</v>
+        <v>947.1</v>
       </c>
       <c r="V2">
-        <v>6.000617665225449</v>
+        <v>2.72546762589928</v>
       </c>
       <c r="W2">
-        <v>0.315042768442534</v>
+        <v>0.2758458646616541</v>
       </c>
       <c r="X2">
-        <v>0.08483222523124737</v>
+        <v>0.07406199560128188</v>
       </c>
       <c r="Y2">
-        <v>0.2302105432112866</v>
+        <v>0.2017838690603722</v>
       </c>
       <c r="Z2">
-        <v>-0.2677945120693213</v>
+        <v>-1.224596774193549</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.07789675587093045</v>
+        <v>0.06947827410982065</v>
       </c>
       <c r="AC2">
-        <v>-0.07789675587093045</v>
+        <v>-0.06947827410982065</v>
       </c>
       <c r="AD2">
-        <v>135.1</v>
+        <v>83</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>135.1</v>
+        <v>83</v>
       </c>
       <c r="AG2">
-        <v>-1807.9</v>
+        <v>-864.1</v>
       </c>
       <c r="AH2">
-        <v>0.2943996513401613</v>
+        <v>0.1927990708478513</v>
       </c>
       <c r="AI2">
-        <v>0.2111597374179431</v>
+        <v>0.1163279607568325</v>
       </c>
       <c r="AJ2">
-        <v>1.218179367967118</v>
+        <v>1.672667440960124</v>
       </c>
       <c r="AK2">
-        <v>1.387277470841007</v>
+        <v>3.699058219178082</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -716,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.332</v>
+        <v>0.294</v>
       </c>
       <c r="E3">
-        <v>0.225</v>
+        <v>0.214</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L3">
-        <v>0.2976669348350764</v>
+        <v>0.2671009771986971</v>
       </c>
       <c r="M3">
-        <v>4.84</v>
+        <v>5.71</v>
       </c>
       <c r="N3">
-        <v>0.02629005975013579</v>
+        <v>0.03156440022111664</v>
       </c>
       <c r="O3">
-        <v>0.1308108108108108</v>
+        <v>0.1392682926829268</v>
       </c>
       <c r="P3">
-        <v>4.84</v>
+        <v>5.71</v>
       </c>
       <c r="Q3">
-        <v>0.02629005975013579</v>
+        <v>0.03156440022111664</v>
       </c>
       <c r="R3">
-        <v>0.1308108108108108</v>
+        <v>0.1392682926829268</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -764,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>831.3</v>
+        <v>184.5</v>
       </c>
       <c r="V3">
-        <v>4.51548071700163</v>
+        <v>1.019900497512438</v>
       </c>
       <c r="W3">
-        <v>0.1851851851851852</v>
+        <v>0.1541353383458647</v>
       </c>
       <c r="X3">
-        <v>0.0830213801754366</v>
+        <v>0.06783433348839681</v>
       </c>
       <c r="Y3">
-        <v>0.1021638050097486</v>
+        <v>0.08630100485746785</v>
       </c>
       <c r="Z3">
-        <v>-0.2682347863616746</v>
+        <v>-0.3094758064516129</v>
       </c>
       <c r="AA3">
         <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.07604557294565473</v>
+        <v>0.06648093228998375</v>
       </c>
       <c r="AC3">
-        <v>-0.07604557294565473</v>
+        <v>-0.06648093228998375</v>
       </c>
       <c r="AD3">
-        <v>69.3</v>
+        <v>17.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>69.3</v>
+        <v>17.6</v>
       </c>
       <c r="AG3">
-        <v>-762</v>
+        <v>-166.9</v>
       </c>
       <c r="AH3">
-        <v>0.2734806629834254</v>
+        <v>0.08866498740554157</v>
       </c>
       <c r="AI3">
-        <v>0.2066805845511482</v>
+        <v>0.05233422539399346</v>
       </c>
       <c r="AJ3">
-        <v>1.318567226163696</v>
+        <v>-11.92142857142857</v>
       </c>
       <c r="AK3">
-        <v>1.536290322580645</v>
+        <v>-1.099472990777339</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -829,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al Baraka Bank Egypt(S.A.E) (CASE:SAUD)</t>
+          <t>alBaraka Bank Egypt S.A.E. (CASE:SAUD)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -838,13 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.259</v>
+        <v>0.215</v>
       </c>
       <c r="E4">
-        <v>0.419</v>
-      </c>
-      <c r="F4">
-        <v>0.08500000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,28 +853,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>75.90000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="L4">
-        <v>0.5609756097560975</v>
+        <v>0.563249001331558</v>
       </c>
       <c r="M4">
-        <v>16.8</v>
+        <v>19.1</v>
       </c>
       <c r="N4">
-        <v>0.1202576950608447</v>
+        <v>0.1146458583433373</v>
       </c>
       <c r="O4">
-        <v>0.2213438735177866</v>
+        <v>0.2257683215130024</v>
       </c>
       <c r="P4">
-        <v>16.8</v>
+        <v>19.1</v>
       </c>
       <c r="Q4">
-        <v>0.1202576950608447</v>
+        <v>0.1146458583433373</v>
       </c>
       <c r="R4">
-        <v>0.2213438735177866</v>
+        <v>0.2257683215130024</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -889,55 +883,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1111.7</v>
+        <v>762.6</v>
       </c>
       <c r="V4">
-        <v>7.957766642806014</v>
+        <v>4.577430972388956</v>
       </c>
       <c r="W4">
-        <v>0.4449003516998828</v>
+        <v>0.3975563909774436</v>
       </c>
       <c r="X4">
-        <v>0.08664307028705813</v>
+        <v>0.08028965771416693</v>
       </c>
       <c r="Y4">
-        <v>0.3582572814128246</v>
+        <v>0.3172667332632766</v>
       </c>
       <c r="Z4">
-        <v>-0.2673913043478261</v>
+        <v>0.6056451612903224</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07974793879620619</v>
+        <v>0.07247561592965754</v>
       </c>
       <c r="AC4">
-        <v>-0.07974793879620619</v>
+        <v>-0.07247561592965754</v>
       </c>
       <c r="AD4">
-        <v>65.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>65.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AG4">
-        <v>-1045.9</v>
+        <v>-697.2</v>
       </c>
       <c r="AH4">
-        <v>0.3201946472019465</v>
+        <v>0.281896551724138</v>
       </c>
       <c r="AI4">
-        <v>0.2160919540229885</v>
+        <v>0.1733828207847296</v>
       </c>
       <c r="AJ4">
-        <v>1.154160229529905</v>
+        <v>1.313984168865435</v>
       </c>
       <c r="AK4">
-        <v>1.295713577799802</v>
+        <v>1.809029579657499</v>
       </c>
       <c r="AL4">
         <v>0</v>
